--- a/template_task.xlsx
+++ b/template_task.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="22">
   <si>
     <t>Tasks Name</t>
   </si>
@@ -59,12 +59,6 @@
     <t>Notes</t>
   </si>
   <si>
-    <t>Dev1</t>
-  </si>
-  <si>
-    <t>Dev2</t>
-  </si>
-  <si>
     <t xml:space="preserve">     Logo</t>
   </si>
   <si>
@@ -86,9 +80,6 @@
     <t xml:space="preserve">      Login popup</t>
   </si>
   <si>
-    <t>Carousel</t>
-  </si>
-  <si>
     <t>Lê Nhựt Phi</t>
   </si>
   <si>
@@ -99,6 +90,12 @@
   </si>
   <si>
     <t>Index, Customer</t>
+  </si>
+  <si>
+    <t>Admin</t>
+  </si>
+  <si>
+    <t>Vũ Bảo Duy</t>
   </si>
 </sst>
 </file>
@@ -608,7 +605,7 @@
   <dimension ref="A1:J986"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" outlineLevelRow="2" x14ac:dyDescent="0.2"/>
@@ -658,7 +655,7 @@
     </row>
     <row r="2" spans="1:10" ht="21.75" customHeight="1" collapsed="1" x14ac:dyDescent="0.2">
       <c r="A2" s="7" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B2" s="8">
         <v>44960</v>
@@ -670,7 +667,7 @@
         <v>1</v>
       </c>
       <c r="E2" s="18" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="F2" s="11">
         <v>44960</v>
@@ -682,15 +679,15 @@
         <v>1</v>
       </c>
       <c r="I2" s="18" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="J2" s="13" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A3" s="14" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B3" s="11"/>
       <c r="C3" s="11"/>
@@ -698,7 +695,7 @@
         <v>0.5</v>
       </c>
       <c r="E3" s="16" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F3" s="11"/>
       <c r="G3" s="8">
@@ -708,13 +705,13 @@
         <v>0.5</v>
       </c>
       <c r="I3" s="10" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="J3" s="13"/>
     </row>
     <row r="4" spans="1:10" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A4" s="18" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B4" s="11">
         <v>43608</v>
@@ -727,7 +724,7 @@
         <v>0.9</v>
       </c>
       <c r="E4" s="16" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F4" s="11"/>
       <c r="G4" s="8">
@@ -738,13 +735,13 @@
         <v>0.9</v>
       </c>
       <c r="I4" s="10" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="J4" s="13"/>
     </row>
     <row r="5" spans="1:10" ht="14.25" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A5" s="14" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B5" s="21">
         <v>43608</v>
@@ -756,7 +753,7 @@
         <v>1</v>
       </c>
       <c r="E5" s="16" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F5" s="21"/>
       <c r="G5" s="8">
@@ -766,13 +763,13 @@
         <v>1</v>
       </c>
       <c r="I5" s="10" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="J5" s="13"/>
     </row>
     <row r="6" spans="1:10" ht="14.25" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A6" s="14" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B6" s="21">
         <v>43636</v>
@@ -784,7 +781,7 @@
         <v>0.9</v>
       </c>
       <c r="E6" s="16" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F6" s="21"/>
       <c r="G6" s="8">
@@ -794,13 +791,13 @@
         <v>0.9</v>
       </c>
       <c r="I6" s="10" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="J6" s="13"/>
     </row>
     <row r="7" spans="1:10" ht="9" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A7" s="14" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B7" s="21">
         <v>43641</v>
@@ -812,7 +809,7 @@
         <v>0.8</v>
       </c>
       <c r="E7" s="16" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F7" s="21"/>
       <c r="G7" s="8">
@@ -822,13 +819,13 @@
         <v>0.8</v>
       </c>
       <c r="I7" s="10" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="J7" s="22"/>
     </row>
     <row r="8" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A8" s="7" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B8" s="11">
         <v>44929</v>
@@ -840,7 +837,7 @@
         <v>1</v>
       </c>
       <c r="E8" s="10" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="F8" s="11">
         <v>44929</v>
@@ -851,11 +848,11 @@
       <c r="H8" s="12">
         <v>1</v>
       </c>
-      <c r="I8" s="10" t="s">
-        <v>10</v>
+      <c r="I8" s="16" t="s">
+        <v>21</v>
       </c>
       <c r="J8" s="13" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
